--- a/Data/EC/NIT-9000414748.xlsx
+++ b/Data/EC/NIT-9000414748.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE675DD-AD02-4967-A908-F4F7C5CE4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1341EC6D-5B8E-4E1A-92F8-8B0A167F4A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06A623DF-A84E-478F-A0F3-9959E2393923}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7EC8DFA-9E60-4C09-94C9-F82831445161}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,58 +71,58 @@
     <t>CARLOS MANUEL SIMANCAS ALVAREZ</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CF151A-6CFA-CAA9-3E18-B41E31FCB42D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE45E75C-47B2-290E-C3B6-598FD6AEDCA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A9EEBE-12E4-4832-AE58-D3014075D72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6161C61D-DBB9-4D6E-A59A-C2567428E0DA}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26500</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1456,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="24">
-        <v>33125</v>
+        <v>26500</v>
       </c>
       <c r="G33" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9000414748.xlsx
+++ b/Data/EC/NIT-9000414748.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1341EC6D-5B8E-4E1A-92F8-8B0A167F4A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A27B690-D1F8-4FBB-B28E-145DB4C15538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7EC8DFA-9E60-4C09-94C9-F82831445161}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01120D56-E436-4CB9-9483-53D8C1B3A2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -236,7 +234,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,29 +430,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,19 +471,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE45E75C-47B2-290E-C3B6-598FD6AEDCA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57534FBC-3DD8-5F56-A028-C6815D93FE20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6161C61D-DBB9-4D6E-A59A-C2567428E0DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BDA429-D8A6-408A-8379-29E9B58F3F02}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -910,49 +916,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -960,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -976,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9000414748</v>
       </c>
@@ -992,7 +998,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>589625</v>
       </c>
@@ -1061,18 +1067,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G16" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G16" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1084,18 +1090,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1107,18 +1113,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1130,18 +1136,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G19" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G19" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1153,18 +1159,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1176,18 +1182,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1199,18 +1205,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1222,18 +1228,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1245,18 +1251,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1268,18 +1274,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1291,18 +1297,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1314,18 +1320,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1337,18 +1343,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1360,18 +1366,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1383,18 +1389,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1406,18 +1412,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G31" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G31" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1429,47 +1435,47 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="B33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="26">
         <v>26500</v>
       </c>
-      <c r="G33" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="G33" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="34"/>
       <c r="H38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1477,10 +1483,10 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="34"/>
       <c r="H39" s="1" t="s">
         <v>39</v>
       </c>
